--- a/test_case/Authentication/login/login_functional_testing.xlsx
+++ b/test_case/Authentication/login/login_functional_testing.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Functional" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,6 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
+    <t>Test Scenario: Login</t>
+  </si>
+  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>Should allow or block based on rules</t>
   </si>
   <si>
+    <t>TC-FUN-025</t>
+  </si>
+  <si>
     <t>Case sensitivity of email field</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>Should log in (emails are case-insensitive)</t>
   </si>
   <si>
+    <t>TC-FUN-026</t>
+  </si>
+  <si>
     <t>Session persistence after refresh</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>User stays logged in</t>
   </si>
   <si>
+    <t>TC-FUN-027</t>
+  </si>
+  <si>
     <t>Logout ends session</t>
   </si>
   <si>
@@ -248,18 +260,6 @@
   </si>
   <si>
     <t>Session cleared returns to login page</t>
-  </si>
-  <si>
-    <t>Test Scenario: Functional on the Login</t>
-  </si>
-  <si>
-    <t>TC-FUN-008</t>
-  </si>
-  <si>
-    <t>TC-FUN-009</t>
-  </si>
-  <si>
-    <t>TC-FUN-010</t>
   </si>
 </sst>
 </file>
@@ -278,31 +278,26 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -687,7 +682,7 @@
   </sheetPr>
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -701,9 +696,9 @@
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -732,7 +727,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -763,28 +758,28 @@
     </row>
     <row r="3" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -808,22 +803,22 @@
     </row>
     <row r="4" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -849,22 +844,22 @@
     </row>
     <row r="5" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="8">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -890,22 +885,22 @@
     </row>
     <row r="6" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -931,22 +926,22 @@
     </row>
     <row r="7" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -972,22 +967,22 @@
     </row>
     <row r="8" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1013,22 +1008,22 @@
     </row>
     <row r="9" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1054,22 +1049,22 @@
     </row>
     <row r="10" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1095,22 +1090,22 @@
     </row>
     <row r="11" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1136,22 +1131,22 @@
     </row>
     <row r="12" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1177,22 +1172,22 @@
     </row>
     <row r="13" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1218,22 +1213,22 @@
     </row>
     <row r="14" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1259,22 +1254,22 @@
     </row>
     <row r="15" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1300,22 +1295,22 @@
     </row>
     <row r="16" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1341,22 +1336,22 @@
     </row>
     <row r="17" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1382,22 +1377,22 @@
     </row>
     <row r="18" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1423,22 +1418,22 @@
     </row>
     <row r="19" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1462,13 +1457,13 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">

--- a/test_case/Authentication/login/login_functional_testing.xlsx
+++ b/test_case/Authentication/login/login_functional_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my github project\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Test Scenario: Login</t>
   </si>
@@ -682,8 +682,8 @@
   </sheetPr>
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1457,13 +1457,89 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8">
+        <v>128</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8">
+        <v>129</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
